--- a/doc/text-excel/name.xlsx
+++ b/doc/text-excel/name.xlsx
@@ -1062,7 +1062,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1137,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="17.4" spans="1:3">
+    <row r="6" ht="17.4" spans="1:4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1145,6 +1145,9 @@
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
+      <c r="D6">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" ht="17.4" spans="3:3">
       <c r="C7" s="4"/>
